--- a/Data/Exports/3088338_1-1.xlsx
+++ b/Data/Exports/3088338_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>num-marca</x:t>
   </x:si>
@@ -50,6 +50,9 @@
   </x:si>
   <x:si>
     <x:t>2023-11-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LA MASIA</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
@@ -457,11 +460,14 @@
       <x:c r="D2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -520,11 +526,14 @@
       <x:c r="D2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -552,15 +561,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -588,15 +597,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
